--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGameProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125638D-E5AA-4284-B36E-8CDB958B2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCEC70-7B71-4722-B94B-9C1D2959DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="1" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="7" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
   <sheets>
     <sheet name="작업순서" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="164">
   <si>
     <t>1. 예전 수업 엑셀 기획서 찾아서 저장해놓자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2747,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A841A5-F755-4A1F-9254-A21D56A93074}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3940,26 +3940,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FB5816-BFFC-43F3-9FA2-4FBA52D74407}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="G1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
         <v>63</v>
       </c>
     </row>
